--- a/4Periodo/QualidadeDeSoftware/RA2/Auditoria de Artefato - Checklist.xlsx
+++ b/4Periodo/QualidadeDeSoftware/RA2/Auditoria de Artefato - Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a11b600c829974/Documentos/GitHub/PUCPR/4Periodo/QualidadeDeSoftware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a11b600c829974/Documentos/GitHub/PUCPR/4Periodo/QualidadeDeSoftware/RA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1499" documentId="8_{C9964654-C3AB-438E-859A-4186567D11D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E8976B9-B142-4637-B21E-32F313A6068D}"/>
+  <xr:revisionPtr revIDLastSave="1500" documentId="8_{C9964654-C3AB-438E-859A-4186567D11D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75407454-705A-4038-85A0-A8CB66B75B77}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{A76D6B14-7DB9-4D82-938A-CCBFCF73592D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A76D6B14-7DB9-4D82-938A-CCBFCF73592D}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,11 +1088,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64D362A-B18D-4A5A-AED0-BBDBF8091366}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="109" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="109" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="F13" sqref="F13:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
@@ -1104,7 +1104,7 @@
     <col min="9" max="16384" width="25.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="24.75" customHeight="1">
+    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="37.5" customHeight="1">
+    <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1">
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1">
+    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="30">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="34.5" customHeight="1">
+    <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="37.5" customHeight="1">
+    <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1">
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="33" customHeight="1">
+    <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="33" customHeight="1">
+    <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="33" customHeight="1">
+    <row r="15" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="33" customHeight="1">
+    <row r="16" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="33" customHeight="1">
+    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1">
+    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="33" customHeight="1">
+    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="33" customHeight="1">
+    <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="27" customHeight="1">
+    <row r="21" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="30">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="34.5" customHeight="1">
+    <row r="23" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="30">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="34.5" customHeight="1">
+    <row r="27" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="27" customHeight="1">
+    <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="37.5" customHeight="1">
+    <row r="29" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="43.5" customHeight="1">
+    <row r="30" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="45" customHeight="1">
+    <row r="31" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="42.75" customHeight="1">
+    <row r="32" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="42.75" customHeight="1">
+    <row r="33" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="35.25" customHeight="1">
+    <row r="34" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="38.25" customHeight="1">
+    <row r="35" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="42.75" customHeight="1">
+    <row r="36" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="30">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="75">
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="29.25" customHeight="1">
+    <row r="43" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="42" customHeight="1">
+    <row r="55" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="30">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="33" customHeight="1">
+    <row r="57" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="42" customHeight="1">
+    <row r="58" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2329,53 +2329,53 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C61" s="7"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="3:7">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="3:7">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="3:7">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="3:7">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G71" s="2"/>
     </row>
-    <row r="78" spans="3:7">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="3:7">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
     </row>
-    <row r="83" spans="3:3" ht="18">
+    <row r="83" spans="3:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C83" s="10"/>
     </row>
   </sheetData>
@@ -2388,10 +2388,10 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
@@ -2402,7 +2402,7 @@
     <col min="11" max="11" width="15.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>101</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -2494,11 +2494,11 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14">
-        <f t="shared" ref="K5:K29" si="0">H5/(G5-J5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="30">
+        <f t="shared" ref="K5:K17" si="0">H5/(G5-J5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="28" t="s">
         <v>24</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="27" t="s">
         <v>26</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F10" s="27" t="s">
         <v>29</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F11" s="27" t="s">
         <v>37</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" s="29" t="s">
         <v>42</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30">
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F13" s="27" t="s">
         <v>44</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="27" t="s">
         <v>50</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F15" s="27" t="s">
         <v>54</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F16" s="26" t="s">
         <v>56</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:11" ht="30">
+    <row r="17" spans="6:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F17" s="26" t="s">
         <v>59</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="6:11" ht="30">
+    <row r="18" spans="6:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F18" s="26" t="s">
         <v>61</v>
       </c>
@@ -2734,11 +2734,11 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="14">
-        <f>H18/(G18-J18)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11">
+        <f t="shared" ref="K18:K28" si="1">H18/(G18-J18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19" s="4" t="s">
         <v>63</v>
       </c>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="14">
-        <f>H19/(G19-J19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:11">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20" s="26" t="s">
         <v>66</v>
       </c>
@@ -2770,11 +2770,11 @@
         <v>1</v>
       </c>
       <c r="K20" s="14">
-        <f>H20/(G20-J20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F21" s="27" t="s">
         <v>74</v>
       </c>
@@ -2787,11 +2787,11 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="14">
-        <f>H21/(G21-J21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="6:11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F22" s="30" t="s">
         <v>110</v>
       </c>
@@ -2804,11 +2804,11 @@
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="14">
-        <f>H22/(G22-J22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:11">
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F23" s="27" t="s">
         <v>79</v>
       </c>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="14">
-        <f>H23/(G23-J23)</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="45">
+    <row r="24" spans="6:11" ht="45" x14ac:dyDescent="0.25">
       <c r="F24" s="27" t="s">
         <v>82</v>
       </c>
@@ -2842,11 +2842,11 @@
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="14">
-        <f>H24/(G24-J24)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="6:11">
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F25" s="27" t="s">
         <v>93</v>
       </c>
@@ -2859,11 +2859,11 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="14">
-        <f>H25/(G25-J25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="6:11" ht="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" ht="30" x14ac:dyDescent="0.25">
       <c r="F26" s="27" t="s">
         <v>95</v>
       </c>
@@ -2876,11 +2876,11 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="14">
-        <f>H26/(G26-J26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="6:11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F27" s="27" t="s">
         <v>97</v>
       </c>
@@ -2893,11 +2893,11 @@
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="14">
-        <f>H27/(G27-J27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:11">
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F28" s="27" t="s">
         <v>99</v>
       </c>
@@ -2910,11 +2910,11 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="14">
-        <f>H28/(G28-J28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="6:11" s="11" customFormat="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F29" s="26" t="s">
         <v>111</v>
       </c>
@@ -2942,11 +2942,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15472A51-C090-4F75-8CF9-13D2A27C41F4}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="33"/>
     <col min="2" max="2" width="35.7109375" style="33" customWidth="1"/>
@@ -2959,7 +2959,7 @@
     <col min="9" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>112</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1">
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="37.5" customHeight="1">
+    <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="39" customHeight="1">
+    <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39" customHeight="1">
+    <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.25" customHeight="1">
+    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>1</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="38.25" customHeight="1">
+    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>1</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.75" customHeight="1">
+    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>1</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="53.25" customHeight="1">
+    <row r="9" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>1</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="37.5" customHeight="1">
+    <row r="10" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>1</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.75" customHeight="1">
+    <row r="11" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>1</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="117" customHeight="1">
+    <row r="12" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>1</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="51.75" customHeight="1">
+    <row r="13" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>1</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="38.25" customHeight="1">
+    <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>1</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36" customHeight="1">
+    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>1</v>
       </c>

--- a/4Periodo/QualidadeDeSoftware/RA2/Auditoria de Artefato - Checklist.xlsx
+++ b/4Periodo/QualidadeDeSoftware/RA2/Auditoria de Artefato - Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a11b600c829974/Documentos/GitHub/PUCPR/4Periodo/QualidadeDeSoftware/RA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1500" documentId="8_{C9964654-C3AB-438E-859A-4186567D11D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75407454-705A-4038-85A0-A8CB66B75B77}"/>
+  <xr:revisionPtr revIDLastSave="1502" documentId="8_{C9964654-C3AB-438E-859A-4186567D11D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD762824-892F-4645-9F68-29E00A225EEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A76D6B14-7DB9-4D82-938A-CCBFCF73592D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" xr2:uid="{A76D6B14-7DB9-4D82-938A-CCBFCF73592D}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,13 +1086,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64D362A-B18D-4A5A-AED0-BBDBF8091366}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="109" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F17"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
@@ -1104,7 +1104,7 @@
     <col min="9" max="16384" width="25.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="24.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1153,78 +1153,46 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" ht="24.75" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="D3" s="21"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.75" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="D4" s="21"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="D5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A6" s="2">
         <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>10</v>
@@ -1237,15 +1205,15 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="37.5" customHeight="1">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>10</v>
@@ -1254,19 +1222,19 @@
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="38.25" customHeight="1">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>10</v>
@@ -1279,15 +1247,15 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="36" customHeight="1">
       <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>10</v>
@@ -1296,19 +1264,19 @@
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>10</v>
@@ -1321,60 +1289,60 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="34.5" customHeight="1">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
+      <c r="D13" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1384,15 +1352,15 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="31.5" customHeight="1">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>31</v>
@@ -1405,15 +1373,15 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="33" customHeight="1">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>31</v>
@@ -1426,15 +1394,15 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="33" customHeight="1">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>31</v>
@@ -1443,19 +1411,19 @@
         <v>11</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="33" customHeight="1">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>31</v>
@@ -1468,39 +1436,39 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="33" customHeight="1">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="33" customHeight="1">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -1510,99 +1478,99 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="33" customHeight="1">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" customHeight="1">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="33" customHeight="1">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="D22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="27" customHeight="1">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="2">
         <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>10</v>
@@ -1611,22 +1579,22 @@
         <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="34.5" customHeight="1">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>11</v>
@@ -1636,15 +1604,15 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>10</v>
@@ -1653,19 +1621,19 @@
         <v>11</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>31</v>
@@ -1678,57 +1646,57 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="30" customHeight="1">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="27" customHeight="1">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>10</v>
@@ -1741,81 +1709,81 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="37.5" customHeight="1">
       <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="43.5" customHeight="1">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="45" customHeight="1">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="D33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>65</v>
+      <c r="D34" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>11</v>
@@ -1825,15 +1793,15 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="42.75" customHeight="1">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>10</v>
@@ -1846,18 +1814,18 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="35.25" customHeight="1">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>10</v>
+        <v>64</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>11</v>
@@ -1867,15 +1835,15 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="38.25" customHeight="1">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>10</v>
@@ -1884,22 +1852,22 @@
         <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="42.75" customHeight="1">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -1909,15 +1877,15 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>10</v>
@@ -1930,18 +1898,18 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
@@ -1951,15 +1919,15 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>10</v>
@@ -1972,36 +1940,36 @@
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="45">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>10</v>
@@ -2014,18 +1982,18 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="75">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -2035,15 +2003,15 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="29.25" customHeight="1">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>10</v>
@@ -2056,36 +2024,36 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>10</v>
+        <v>81</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>10</v>
@@ -2098,18 +2066,18 @@
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -2119,15 +2087,15 @@
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D49" s="21" t="s">
         <v>10</v>
@@ -2140,18 +2108,18 @@
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
@@ -2161,15 +2129,15 @@
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="30">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D51" s="21" t="s">
         <v>10</v>
@@ -2182,15 +2150,15 @@
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D52" s="21" t="s">
         <v>10</v>
@@ -2203,15 +2171,15 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>10</v>
@@ -2224,81 +2192,81 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="30">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="D56" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="42" customHeight="1">
+      <c r="A57" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>31</v>
+      <c r="D57" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
@@ -2308,75 +2276,117 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="30">
       <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="33" customHeight="1">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" ht="42" customHeight="1">
+      <c r="A60" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="D60" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="7"/>
+    <row r="61" spans="1:7">
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
+      <c r="C63" s="7"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7">
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7">
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7">
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7">
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7">
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7">
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7">
       <c r="G71" s="2"/>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="8"/>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-    </row>
-    <row r="83" spans="3:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C83" s="10"/>
+    <row r="72" spans="3:7">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="9"/>
+    </row>
+    <row r="85" spans="3:3" ht="18">
+      <c r="C85" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2391,7 +2401,7 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
@@ -2402,7 +2412,7 @@
     <col min="11" max="11" width="15.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="37" t="s">
         <v>101</v>
       </c>
@@ -2417,7 +2427,7 @@
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -2446,7 +2456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2472,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -2498,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="F8" s="28" t="s">
         <v>24</v>
       </c>
@@ -2564,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="F9" s="27" t="s">
         <v>26</v>
       </c>
@@ -2581,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30">
       <c r="F10" s="27" t="s">
         <v>29</v>
       </c>
@@ -2598,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30">
       <c r="F11" s="27" t="s">
         <v>37</v>
       </c>
@@ -2615,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="F12" s="29" t="s">
         <v>42</v>
       </c>
@@ -2632,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30">
       <c r="F13" s="27" t="s">
         <v>44</v>
       </c>
@@ -2651,7 +2661,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="F14" s="27" t="s">
         <v>50</v>
       </c>
@@ -2670,7 +2680,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30">
       <c r="F15" s="27" t="s">
         <v>54</v>
       </c>
@@ -2687,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30">
       <c r="F16" s="26" t="s">
         <v>56</v>
       </c>
@@ -2704,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:11" ht="30">
       <c r="F17" s="26" t="s">
         <v>59</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:11" ht="30">
       <c r="F18" s="26" t="s">
         <v>61</v>
       </c>
@@ -2738,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:11">
       <c r="F19" s="4" t="s">
         <v>63</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:11">
       <c r="F20" s="26" t="s">
         <v>66</v>
       </c>
@@ -2774,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:11">
       <c r="F21" s="27" t="s">
         <v>74</v>
       </c>
@@ -2791,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:11">
       <c r="F22" s="30" t="s">
         <v>110</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11">
       <c r="F23" s="27" t="s">
         <v>79</v>
       </c>
@@ -2827,7 +2837,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:11" ht="45">
       <c r="F24" s="27" t="s">
         <v>82</v>
       </c>
@@ -2846,7 +2856,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11">
       <c r="F25" s="27" t="s">
         <v>93</v>
       </c>
@@ -2863,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" ht="30">
       <c r="F26" s="27" t="s">
         <v>95</v>
       </c>
@@ -2880,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11">
       <c r="F27" s="27" t="s">
         <v>97</v>
       </c>
@@ -2897,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11">
       <c r="F28" s="27" t="s">
         <v>99</v>
       </c>
@@ -2914,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" s="11" customFormat="1">
       <c r="F29" s="26" t="s">
         <v>111</v>
       </c>
@@ -2942,11 +2952,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15472A51-C090-4F75-8CF9-13D2A27C41F4}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="33"/>
     <col min="2" max="2" width="35.7109375" style="33" customWidth="1"/>
@@ -2959,7 +2969,7 @@
     <col min="9" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>112</v>
       </c>
@@ -2985,7 +2995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="36" customHeight="1">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -3011,7 +3021,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="37.5" customHeight="1">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -3037,7 +3047,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="39" customHeight="1">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -3063,7 +3073,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="39" customHeight="1">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -3089,7 +3099,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="35.25" customHeight="1">
       <c r="A6" s="33">
         <v>1</v>
       </c>
@@ -3115,7 +3125,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="38.25" customHeight="1">
       <c r="A7" s="33">
         <v>1</v>
       </c>
@@ -3141,7 +3151,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="39.75" customHeight="1">
       <c r="A8" s="33">
         <v>1</v>
       </c>
@@ -3167,7 +3177,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="53.25" customHeight="1">
       <c r="A9" s="33">
         <v>1</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="37.5" customHeight="1">
       <c r="A10" s="33">
         <v>1</v>
       </c>
@@ -3219,7 +3229,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="69.75" customHeight="1">
       <c r="A11" s="33">
         <v>1</v>
       </c>
@@ -3245,7 +3255,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="117" customHeight="1">
       <c r="A12" s="33">
         <v>1</v>
       </c>
@@ -3271,7 +3281,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="51.75" customHeight="1">
       <c r="A13" s="33">
         <v>1</v>
       </c>
@@ -3297,7 +3307,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="38.25" customHeight="1">
       <c r="A14" s="33">
         <v>1</v>
       </c>
@@ -3323,7 +3333,7 @@
         <v>45573</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="36" customHeight="1">
       <c r="A15" s="33">
         <v>1</v>
       </c>
